--- a/documents/API List.xlsx
+++ b/documents/API List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.Work\Graduate\front\SESTOPIA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894ADC64-1019-4B76-84A0-F51ADA1ACEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489903D1-778B-470F-84C2-2C81FB07D665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/members</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,27 +75,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>see url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name='api implementation' (optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/skill/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/members/{id}</t>
+    <t>/api/members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1, 
+        "student_name": "Baiyu Huo", 
+        "student_no": 40076004, 
+        "email": "boyu.huo.china@gmail.com", 
+        "skill_name": "API Implementation", 
+        "knowledge_area": "Software Construction"
+    }, 
+   ...
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1, 
+        "name": "API Implementation", 
+        "classification": "", 
+        "prerequisites": null, 
+        "knowledge_area": "Software Construction", 
+        "rationale": null, 
+        "roles_for_skill": null, 
+        "related_activities": null, 
+        "real_world_scenario": null, 
+        "role_of_academia": null, 
+        "tools": null, 
+        "self_assessment": null, 
+        "reference": null, 
+        "student_name": "Baiyu Huo", 
+        "student_no": 40076004
+    }, 
+...
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as A03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support blurt search, e.g search name="a" will shows all the data includes 'a' (abc, bac, cba, aa, a ….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/skills/search?name=API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/members/{studentid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/skills/search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,14 +241,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,346 +553,352 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="4" max="4" width="39.21875" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="11" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/API List.xlsx
+++ b/documents/API List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.Work\Graduate\front\SESTOPIA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489903D1-778B-470F-84C2-2C81FB07D665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04F35F9-9A9E-488F-8ABC-792CDC5CFA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/documents/API List.xlsx
+++ b/documents/API List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.Work\Graduate\front\SESTOPIA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04F35F9-9A9E-488F-8ABC-792CDC5CFA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2FE919-FEAE-4AB3-94A7-573B024E6674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,42 @@
   </si>
   <si>
     <t>/api/skills/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    {
+        "id": 1, 
+        "name": "API Implementation", 
+        "classification": "", 
+        "prerequisites": null, 
+        "knowledge_area": "Software Construction", 
+        "rationale": null, 
+        "roles_for_skill": null, 
+        "related_activities": null, 
+        "real_world_scenario": null, 
+        "role_of_academia": null, 
+        "tools": null, 
+        "self_assessment": null, 
+        "reference": null, 
+        "student_name": "Baiyu Huo", 
+        "student_no": 40076004
+    }, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/skills/{member id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,12 +702,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+    <row r="6" spans="1:7" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>

--- a/documents/API List.xlsx
+++ b/documents/API List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.Work\Graduate\front\SESTOPIA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2FE919-FEAE-4AB3-94A7-573B024E6674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4357ACCD-3DB1-4442-909B-D71A126BE126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,42 +153,6 @@
   </si>
   <si>
     <t>/api/skills/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    {
-        "id": 1, 
-        "name": "API Implementation", 
-        "classification": "", 
-        "prerequisites": null, 
-        "knowledge_area": "Software Construction", 
-        "rationale": null, 
-        "roles_for_skill": null, 
-        "related_activities": null, 
-        "real_world_scenario": null, 
-        "role_of_academia": null, 
-        "tools": null, 
-        "self_assessment": null, 
-        "reference": null, 
-        "student_name": "Baiyu Huo", 
-        "student_no": 40076004
-    }, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/skills/{member id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,22 +666,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="234.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
